--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437C9D8-75D1-4F5B-9621-9B48B4F52AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -84,19 +90,17 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,158 +122,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,194 +155,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -477,253 +164,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,62 +183,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1080,29 +484,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1182,7 +586,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1202,7 +606,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1222,7 +626,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1240,7 +644,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1258,7 +662,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1276,33 +680,52 @@
       </c>
       <c r="H11" s="5"/>
     </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10007</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1381,8 +804,8 @@
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437C9D8-75D1-4F5B-9621-9B48B4F52AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A9EE0D-BAB8-4F2E-9113-51FD30E7417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1190" yWindow="3550" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -699,6 +707,27 @@
       <c r="H12" s="3">
         <v>10007</v>
       </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A9EE0D-BAB8-4F2E-9113-51FD30E7417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0FC2C-EE06-430D-8BAD-76ABD34FD535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1190" yWindow="3550" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Map3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginCenter </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +516,7 @@
   <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -587,8 +602,8 @@
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H6" s="5">
         <v>10002</v>
@@ -726,8 +741,21 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0FC2C-EE06-430D-8BAD-76ABD34FD535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1190" yWindow="3550" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -86,41 +80,35 @@
     <t>Map2</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginCenter </t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
     <t>Robot</t>
   </si>
   <si>
     <t>Robot01</t>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Realm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginCenter </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,26 +131,156 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +293,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,9 +488,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -203,24 +749,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,29 +1097,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -549,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -569,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -589,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="1" ht="14.1" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -602,35 +1192,35 @@
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H6" s="5">
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="3">
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="5">
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="3">
+    <row r="8" spans="3:8">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5">
@@ -643,14 +1233,14 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="3">
+    <row r="9" spans="3:8">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="5">
@@ -660,33 +1250,35 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="3">
+    <row r="11" spans="3:8">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="5">
@@ -699,90 +1291,109 @@
         <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="3">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="3">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -802,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -822,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -842,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -853,16 +1464,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>CallHero</t>
   </si>
   <si>
     <t>Robot</t>
@@ -103,12 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,10 +133,140 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -143,142 +276,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -295,19 +292,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,163 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +483,86 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,96 +583,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,137 +601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1192,7 +1183,7 @@
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5">
@@ -1212,7 +1203,7 @@
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5">
@@ -1247,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -1303,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>18</v>
@@ -1323,10 +1314,10 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="3">
@@ -1343,10 +1334,10 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1360,11 +1351,28 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1464,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -74,18 +74,12 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
+    <t>Map3</t>
   </si>
   <si>
     <t>Account</t>
   </si>
   <si>
-    <t>Map3</t>
-  </si>
-  <si>
     <t xml:space="preserve">LoginCenter </t>
   </si>
   <si>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>CallHero</t>
+  </si>
+  <si>
+    <t>MainScene</t>
   </si>
   <si>
     <t>Robot</t>
@@ -106,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,6 +130,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,28 +153,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,54 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,37 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -276,6 +251,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -292,19 +289,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,163 +427,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +480,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +502,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -516,17 +537,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H16"/>
+  <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1300,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1315,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>10007</v>
@@ -1335,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>22</v>
@@ -1352,27 +1349,61 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42AA7A2-DEFC-444D-844A-CB36D04F328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView xWindow="3290" yWindow="2690" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -84,9 +90,6 @@
   </si>
   <si>
     <t>LoginCenter</t>
-  </si>
-  <si>
-    <t>CallHero</t>
   </si>
   <si>
     <t>MainScene</t>
@@ -101,14 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,151 +127,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,194 +147,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -482,251 +156,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -744,61 +176,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1085,29 +473,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.1" spans="3:8">
+    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1187,7 +575,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1207,7 +595,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1227,7 +615,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -1247,7 +635,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -1265,7 +653,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -1283,7 +671,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -1301,7 +689,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -1321,7 +709,7 @@
         <v>10007</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -1338,41 +726,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="5">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="3">
         <v>12</v>
       </c>
@@ -1386,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="3">
         <v>13</v>
       </c>
@@ -1403,36 +763,35 @@
         <v>18</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1503,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42AA7A2-DEFC-444D-844A-CB36D04F328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="2690" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28345" windowHeight="14297"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>MainScene</t>
+  </si>
+  <si>
+    <t>PVEGameScene</t>
   </si>
   <si>
     <t>Robot</t>
@@ -104,8 +101,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +130,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +287,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,9 +482,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,17 +744,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,29 +1085,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -515,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -535,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -555,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="1" ht="14.1" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -575,7 +1187,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -595,7 +1207,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -615,7 +1227,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -635,7 +1247,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -653,7 +1265,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -671,7 +1283,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -689,7 +1301,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -709,7 +1321,7 @@
         <v>10007</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:7">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -726,13 +1338,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:3">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:3">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7">
       <c r="C17" s="3">
         <v>12</v>
       </c>
@@ -749,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7">
       <c r="C18" s="3">
         <v>13</v>
       </c>
@@ -766,32 +1378,67 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3603603603604" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0900900900901" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -811,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -831,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -851,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -862,16 +1509,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14297"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,6 +130,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -138,44 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,53 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,30 +237,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,25 +289,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,157 +391,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,26 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -542,11 +522,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +561,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="C3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="7"/>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>23</v>
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>23</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>24</v>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>24</v>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3E59C-05BD-4BBB-AB49-D653CB6113DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F184EBF2-1F97-4DE6-BFD7-05C432D28CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -121,6 +121,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -128,11 +129,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -502,7 +505,7 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F184EBF2-1F97-4DE6-BFD7-05C432D28CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F078685-DB02-489C-ADEE-93C8867923EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,9 @@
   <si>
     <t>MailScene</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeTempScene</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H21"/>
+  <dimension ref="C3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -766,6 +769,23 @@
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F078685-DB02-489C-ADEE-93C8867923EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -95,24 +89,32 @@
     <t>PVEGameScene</t>
   </si>
   <si>
+    <t>MailScene</t>
+  </si>
+  <si>
+    <t>ChangeTempScene</t>
+  </si>
+  <si>
+    <t>PVPGameScene</t>
+  </si>
+  <si>
     <t>Robot</t>
   </si>
   <si>
     <t>Robot01</t>
-  </si>
-  <si>
-    <t>MailScene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeTempScene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +126,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -132,32 +133,154 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +293,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,11 +488,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,21 +749,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,29 +1091,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0865384615385" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -581,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="1" ht="16.8" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -601,15 +1193,27 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -620,64 +1224,86 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8">
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
       <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -688,16 +1314,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -708,112 +1331,73 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="3">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="3">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="3">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="3">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0865384615385" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -833,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -853,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -873,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -884,16 +1468,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>